--- a/配置/对话配置.xlsx
+++ b/配置/对话配置.xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:dbsheet="http://web.wps.cn/et/2021/dbsheet">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="11655"/>
+    <workbookView windowWidth="21094" windowHeight="7834"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="26">
   <si>
     <t>DialogueConfig</t>
   </si>
@@ -55,16 +55,58 @@
     <t>float</t>
   </si>
   <si>
-    <t>开始</t>
-  </si>
-  <si>
-    <t>测试2</t>
-  </si>
-  <si>
-    <t>结束</t>
-  </si>
-  <si>
-    <t>结束2</t>
+    <t>嗨~~这里~~这里~~</t>
+  </si>
+  <si>
+    <t>太好了！终于来人了！</t>
+  </si>
+  <si>
+    <t>长话短说，我被困在这个画图软件里了OAO</t>
+  </si>
+  <si>
+    <t>你能帮助我逃离这些文件吗？</t>
+  </si>
+  <si>
+    <t>按【A】和【D】来指挥我左右移动。</t>
+  </si>
+  <si>
+    <t>按下【空格】的话，我就会跳跃。</t>
+  </si>
+  <si>
+    <t>找准时机哦~</t>
+  </si>
+  <si>
+    <t>旁边这个方块好像是叫什么“剪切遮罩”吧。</t>
+  </si>
+  <si>
+    <t>遮罩后面是另一个图层的内容，或许会有用。</t>
+  </si>
+  <si>
+    <t>点击方块可以拿起遮罩，再点击就放下遮罩啦。</t>
+  </si>
+  <si>
+    <t>拜托你了！</t>
+  </si>
+  <si>
+    <t>话说……要是我在放下遮罩的时候【卡进墙里】的话……</t>
+  </si>
+  <si>
+    <t>诶！你要试吗？要不还是算了吧！</t>
+  </si>
+  <si>
+    <t>这里应该就是最后一个文件了。</t>
+  </si>
+  <si>
+    <t>我要走了，谢谢你！</t>
+  </si>
+  <si>
+    <t>你也不要被这些文件困住了哇。</t>
+  </si>
+  <si>
+    <t>外面阳光很好哦！</t>
+  </si>
+  <si>
+    <t>拜拜！</t>
   </si>
 </sst>
 </file>
@@ -995,18 +1037,19 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="7" outlineLevelCol="3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1" outlineLevelCol="3"/>
   <cols>
-    <col min="1" max="1" width="29.375" customWidth="1"/>
+    <col min="1" max="1" width="29.3783783783784" customWidth="1"/>
+    <col min="2" max="2" width="37.2972972972973" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:1">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1061,21 +1104,35 @@
         <v>9</v>
       </c>
       <c r="C5">
-        <v>-1</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>1</v>
       </c>
     </row>
+    <row r="6" spans="1:4">
+      <c r="A6">
+        <v>102</v>
+      </c>
+      <c r="B6" t="s">
+        <v>10</v>
+      </c>
+      <c r="C6">
+        <v>103</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+    </row>
     <row r="7" spans="1:4">
       <c r="A7">
-        <v>200</v>
+        <v>103</v>
       </c>
       <c r="B7" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C7">
-        <v>201</v>
+        <v>104</v>
       </c>
       <c r="D7">
         <v>1</v>
@@ -1083,15 +1140,197 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8">
+        <v>104</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>105</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4">
+      <c r="A9">
+        <v>105</v>
+      </c>
+      <c r="B9" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9">
+        <v>106</v>
+      </c>
+      <c r="D9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4">
+      <c r="A10">
+        <v>106</v>
+      </c>
+      <c r="B10" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10">
+        <v>107</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4">
+      <c r="A11">
+        <v>107</v>
+      </c>
+      <c r="B11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C11">
+        <v>108</v>
+      </c>
+      <c r="D11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4">
+      <c r="A12">
+        <v>108</v>
+      </c>
+      <c r="B12" t="s">
+        <v>16</v>
+      </c>
+      <c r="C12">
+        <v>109</v>
+      </c>
+      <c r="D12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4">
+      <c r="A13">
+        <v>109</v>
+      </c>
+      <c r="B13" t="s">
+        <v>17</v>
+      </c>
+      <c r="C13">
+        <v>110</v>
+      </c>
+      <c r="D13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4">
+      <c r="A14">
+        <v>110</v>
+      </c>
+      <c r="B14" t="s">
+        <v>18</v>
+      </c>
+      <c r="C14">
+        <v>111</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4">
+      <c r="A15">
+        <v>111</v>
+      </c>
+      <c r="B15" t="s">
+        <v>19</v>
+      </c>
+      <c r="C15">
+        <v>112</v>
+      </c>
+      <c r="D15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4">
+      <c r="A16">
+        <v>112</v>
+      </c>
+      <c r="B16" t="s">
+        <v>20</v>
+      </c>
+      <c r="C16">
+        <v>-1</v>
+      </c>
+      <c r="D16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4">
+      <c r="A18">
+        <v>200</v>
+      </c>
+      <c r="B18" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18">
         <v>201</v>
       </c>
-      <c r="B8" t="s">
-        <v>11</v>
-      </c>
-      <c r="C8">
+      <c r="D18">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4">
+      <c r="A19">
+        <v>201</v>
+      </c>
+      <c r="B19" t="s">
+        <v>22</v>
+      </c>
+      <c r="C19">
+        <v>202</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4">
+      <c r="A20">
+        <v>202</v>
+      </c>
+      <c r="B20" t="s">
+        <v>23</v>
+      </c>
+      <c r="C20">
+        <v>203</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4">
+      <c r="A21">
+        <v>203</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21">
+        <v>204</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4">
+      <c r="A22">
+        <v>204</v>
+      </c>
+      <c r="B22" t="s">
+        <v>25</v>
+      </c>
+      <c r="C22">
         <v>-1</v>
       </c>
-      <c r="D8">
+      <c r="D22">
         <v>1</v>
       </c>
     </row>
@@ -1111,7 +1350,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1128,7 +1367,7 @@
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.1"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
